--- a/testData/address_rule_test_data.xlsx
+++ b/testData/address_rule_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_address_rule" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -36,14 +36,6 @@
   </si>
   <si>
     <t>请选择要删除的数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>全选删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你确定要删除该选项吗？</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -76,18 +68,6 @@
   </si>
   <si>
     <t>口令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -209,26 +189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.59</t>
   </si>
   <si>
@@ -291,10 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>adress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -305,26 +261,6 @@
   <si>
     <t>添加adress7地址规则</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择名称为adress7的进行删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>adress7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询地址规则名称为test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询地址规则名称为yy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询地址规则名称为yuan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>查询全部地址规则</t>
@@ -351,42 +287,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>您没有在ip：172.16.10.29下登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户a绑定的adress1地址规则成功登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户b绑定的adress2地址规则成功登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户c绑定的adress3地址规则成功登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户d绑定的adress4地址规则成功登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户e绑定的adress5地址规则没有登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户f绑定的adress6地址规则没有登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户g绑定的adress7地址规则没有登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户h绑定的adress8地址规则没有登录的权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -399,19 +299,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>至少需要选择一种IP规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP不能为空！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IP地址填写!@#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP格式不正确！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -471,11 +359,137 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>adress</t>
+    <t>a</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>cyyl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyym</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyadress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询地址规则名称为a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询地址规则名称为adress5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询地址规则名称为bt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择名称为adress1的进行删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adress1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择名称为adress2的进行删除</t>
+  </si>
+  <si>
+    <t>选择名称为adress3的进行删除</t>
+  </si>
+  <si>
+    <t>选择名称为adress4的进行删除</t>
+  </si>
+  <si>
+    <t>选择名称为adress5的进行删除</t>
+  </si>
+  <si>
+    <t>选择名称为adress6的进行删除</t>
+  </si>
+  <si>
+    <t>选择名称为adress7的进行删除</t>
+  </si>
+  <si>
+    <t>cyyadress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择名称为cyyadress的进行删除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyl绑定的adress1地址规则成功登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyym绑定的adress2地址规则成功登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyn绑定的adress3地址规则成功登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyo绑定的adress4地址规则成功登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyp绑定的adress5地址规则没有登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyq绑定的adress6地址规则没有登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyr绑定的adress7地址规则没有登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyys绑定的adress8地址规则没有登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您没有在ip：172.16.10.24下登录的权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少需要选择一种地址规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址不能为空！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址格式不正确</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +636,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +681,9 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -965,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XAO9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -985,7 +1002,7 @@
     <col min="12" max="12" width="19.25" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="41.25" style="2" customWidth="1"/>
     <col min="16" max="16" width="35.75" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.125" style="2" customWidth="1"/>
     <col min="18" max="19" width="5.875" style="2" customWidth="1"/>
@@ -1001,55 +1018,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>2</v>
@@ -1057,16 +1074,16 @@
     </row>
     <row r="2" spans="1:16265">
       <c r="A2" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="9">
         <v>1</v>
@@ -1075,54 +1092,54 @@
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9">
         <v>2</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>15</v>
+      <c r="R2" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="S2" s="9">
         <v>1</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16265">
       <c r="A3" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9">
         <v>1</v>
@@ -1131,42 +1148,42 @@
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9">
         <v>2</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>51</v>
+      <c r="R3" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
@@ -17416,16 +17433,16 @@
     </row>
     <row r="4" spans="1:16265">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
@@ -17434,56 +17451,56 @@
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9">
         <v>2</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>17</v>
+      <c r="R4" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16265">
       <c r="A5" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
@@ -17492,55 +17509,55 @@
         <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9">
         <v>2</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>16</v>
+      <c r="R5" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="S5" s="9">
         <v>1</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16265">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -17549,56 +17566,56 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="9">
         <v>2</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>52</v>
+      <c r="R6" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="S6" s="9">
         <v>1</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16265">
       <c r="A7" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
@@ -17607,58 +17624,58 @@
         <v>2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="9">
         <v>2</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>53</v>
+      <c r="R7" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="S7" s="9">
         <v>1</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16265">
       <c r="A8" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
@@ -17667,58 +17684,58 @@
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="9">
         <v>2</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>54</v>
+      <c r="R8" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="S8" s="9">
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16265">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
@@ -17727,44 +17744,44 @@
         <v>3</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="9">
         <v>2</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="S9" s="9">
         <v>1</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -17779,7 +17796,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17787,7 +17804,7 @@
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="7.125" customWidth="1"/>
@@ -17806,31 +17823,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -17838,16 +17855,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E2" s="9">
         <v>1</v>
@@ -17856,22 +17873,22 @@
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -17885,15 +17902,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
@@ -17908,16 +17925,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -17925,25 +17942,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="12"/>
       <c r="G2" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="9">
@@ -17952,109 +17969,109 @@
       <c r="E3" s="9"/>
       <c r="F3" s="12"/>
       <c r="G3" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="13" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="9"/>
       <c r="E4" s="13" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="12"/>
       <c r="G7" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="12"/>
       <c r="G8" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="12"/>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -18075,7 +18092,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18090,7 +18107,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -18098,44 +18115,44 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -18146,17 +18163,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18168,7 +18185,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -18176,40 +18193,126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
